--- a/api/src/test/resources/decision_tables/bp_rules.drl.xlsx
+++ b/api/src/test/resources/decision_tables/bp_rules.drl.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
   <si>
     <t>RuleSet</t>
   </si>
@@ -25,13 +22,13 @@
     <t>Import</t>
   </si>
   <si>
-    <t>org.openmrs.Patient,org.openmrs.Concept,org.openmrs.module.drools.PatientFlag</t>
+    <t>org.openmrs.Patient,org.openmrs.Concept,org.openmrs.module.drools.PatientFlag,org.openmrs.module.drools.calculation.Operator</t>
   </si>
   <si>
     <t>Variables</t>
   </si>
   <si>
-    <t>org.openmrs.module.drools.TestCalculationsHelper helper</t>
+    <t>org.openmrs.module.drools.calculation.DroolsCalculationService calcService</t>
   </si>
   <si>
     <t>RuleTable</t>
@@ -52,16 +49,16 @@
     <t>$patient: Patient</t>
   </si>
   <si>
-    <t>helper.hasNumericObsGreaterOrEqual($patient, new Concept(100), $param)</t>
-  </si>
-  <si>
-    <t>helper.hasNumericObsLessThan($patient, new Concept(100), $param)</t>
-  </si>
-  <si>
-    <t>helper.hasNumericObsGreaterOrEqual($patient, new Concept(101), $param)</t>
-  </si>
-  <si>
-    <t>helper.hasNumericObsLessThan($patient, new Concept(101), $param)</t>
+    <t>calcService.checkMostRecentObs($patient, "gf7ac65x-5136-443c-v11f-461caa535677", Operator.GTE, $param)</t>
+  </si>
+  <si>
+    <t>calcService.checkMostRecentObs($patient, "gf7ac65x-5136-443c-v11f-461caa535677", Operator.LT, $param)</t>
+  </si>
+  <si>
+    <t>calcService.checkMostRecentObs($patient, "cf7ac65x-c136-443c-v11f-461caa5356l7", Operator.GTE, $param)</t>
+  </si>
+  <si>
+    <t>calcService.checkMostRecentObs($patient, "cf7ac65x-c136-443c-v11f-461caa5356l7", Operator.LT, $param)</t>
   </si>
   <si>
     <t>PatientFlag $flag = new PatientFlag($patient, $param);</t>
@@ -118,35 +115,44 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -158,170 +164,129 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office Theme">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="ffffff" val="window"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office Theme">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -342,53 +307,50 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
-              <a:satMod val="105000"/>
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -398,16 +360,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -416,23 +369,21 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
-            </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -456,7 +407,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -469,12 +420,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -486,222 +438,1064 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="35000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="29.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="63.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="58.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="19.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="63.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.8516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.8516" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" t="s" s="3">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
+    <row r="5" ht="18.75" customHeight="1">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="18.75" customHeight="1">
+      <c r="A6" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s" s="3">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2" t="s">
+    <row r="7" ht="18.75" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2" t="s">
+    <row r="8" ht="18.75" customHeight="1">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="3">
         <v>13</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="3">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s" s="3">
         <v>15</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s" s="3">
         <v>16</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s" s="3">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
+    <row r="9" ht="18.75" customHeight="1">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s" s="3">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="3">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="3">
         <v>20</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s" s="3">
         <v>21</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s" s="3">
         <v>22</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s" s="3">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="1" t="s">
+    <row r="10" ht="18.75" customHeight="1">
+      <c r="A10" t="s" s="6">
         <v>24</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>180</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
         <v>110</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" t="s" s="3">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s" s="3">
         <v>26</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="1" t="s">
+    <row r="11" ht="18.75" customHeight="1">
+      <c r="A11" t="s" s="6">
         <v>27</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>160</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <v>100</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" t="s" s="6">
         <v>28</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" t="s" s="6">
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="1" t="s">
+    <row r="12" ht="18.75" customHeight="1">
+      <c r="A12" t="s" s="6">
         <v>30</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4">
         <v>90</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4">
         <v>50</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" t="s" s="6">
         <v>31</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" t="s" s="6">
         <v>32</v>
       </c>
     </row>
@@ -710,5 +1504,9 @@
     <mergeCell ref="B7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>